--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_16.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>437591.1243235726</v>
+        <v>435930.6581591755</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18249983.41937636</v>
+        <v>16636980.42967733</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3650026.315129927</v>
+        <v>2069122.084925923</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6688701.145781284</v>
+        <v>7342491.342753882</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +661,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>100.5218640466475</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,16 +712,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>223.2806671028899</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -820,7 +822,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -829,13 +831,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>24.34318456170477</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -883,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>166.2277260299473</v>
       </c>
     </row>
     <row r="5">
@@ -896,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>51.49013190434606</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -914,7 +916,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -956,10 +958,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>125.2558025085181</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1066,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>24.34318456170476</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1120,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>185.6225384818052</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>179.6128056033678</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>90.25365670480782</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1199,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1297,19 +1299,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>6.133574646794665</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>24.34318456170476</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -1357,7 +1359,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,22 +1372,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>68.12206052868142</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.5820521487162075</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1436,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1537,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>94.4312367321524</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>28.46824604904426</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1616,16 +1618,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1667,13 +1669,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>93.20265817819904</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1774,16 +1776,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>90.30617524481251</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1850,19 +1852,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>128.3959845629304</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -1910,7 +1912,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2002,7 +2004,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2011,13 +2013,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>67.68074767021322</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2135,7 +2137,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2254,7 +2256,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2296,7 +2298,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>5.990622819018522</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2488,10 +2490,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>160.788496495006</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>184.7519140116473</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2728,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>193.8659438253727</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2950,16 +2952,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>43.70143389869422</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
@@ -2968,7 +2970,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>35.75633396116255</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>137.8834167598885</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3202,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>18.05677735225717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3281,7 +3283,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -3439,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3487,10 +3489,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>189.9879808696992</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3664,7 +3666,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3676,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225751</v>
+        <v>22.56919457453911</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3752,13 +3754,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3904,19 +3906,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3961,7 +3963,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>198.8659212855445</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3974,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
@@ -4040,10 +4042,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>155.5869679636088</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>27.97358346682158</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4150,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4201,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1609.939104869517</v>
+        <v>588.7131977810884</v>
       </c>
       <c r="C2" t="n">
-        <v>1171.796632052941</v>
+        <v>588.7131977810884</v>
       </c>
       <c r="D2" t="n">
-        <v>1171.796632052941</v>
+        <v>588.7131977810884</v>
       </c>
       <c r="E2" t="n">
-        <v>1171.796632052941</v>
+        <v>154.9384529393836</v>
       </c>
       <c r="F2" t="n">
-        <v>743.9292024621484</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G2" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362199</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
@@ -4358,22 +4360,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U2" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V2" t="n">
-        <v>2444.524799054772</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W2" t="n">
-        <v>2444.524799054772</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X2" t="n">
-        <v>2444.524799054772</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="Y2" t="n">
-        <v>2036.238675354425</v>
+        <v>1015.012768265996</v>
       </c>
     </row>
     <row r="3">
@@ -4401,31 +4403,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M3" t="n">
-        <v>277.7880908295408</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N3" t="n">
-        <v>938.6281453713193</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O3" t="n">
-        <v>938.6281453713193</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P3" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
         <v>1599.468199913098</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>762.8950539462408</v>
+        <v>800.9901093678603</v>
       </c>
       <c r="C4" t="n">
-        <v>590.3333424294657</v>
+        <v>628.4283978510853</v>
       </c>
       <c r="D4" t="n">
-        <v>424.4553496309884</v>
+        <v>628.4283978510853</v>
       </c>
       <c r="E4" t="n">
-        <v>254.6973458817257</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="F4" t="n">
-        <v>77.99029184348186</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G4" t="n">
-        <v>53.40121652862855</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>53.40121652862855</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4498,7 +4500,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4510,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2510.819457729425</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2264.94001130788</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>1986.507010560985</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1699.551502431416</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
-        <v>1427.525098017707</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1182.13334335112</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y4" t="n">
-        <v>954.7136726652279</v>
+        <v>992.8087280868474</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1617.981460104281</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="C5" t="n">
-        <v>1179.838987287704</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="D5" t="n">
-        <v>743.9292024621484</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="E5" t="n">
-        <v>743.9292024621484</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F5" t="n">
-        <v>743.9292024621484</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G5" t="n">
-        <v>342.5313710854123</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M5" t="n">
-        <v>632.7278666362199</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N5" t="n">
-        <v>632.7278666362199</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2366.341725488304</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2107.119422805321</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V5" t="n">
-        <v>1744.502472739147</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W5" t="n">
-        <v>1617.981460104281</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X5" t="n">
-        <v>1617.981460104281</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="Y5" t="n">
-        <v>1617.981460104281</v>
+        <v>1224.223655672615</v>
       </c>
     </row>
     <row r="6">
@@ -4638,31 +4640,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K6" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L6" t="n">
-        <v>394.9608689238807</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M6" t="n">
-        <v>1055.800923465659</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N6" t="n">
-        <v>1716.640978007438</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O6" t="n">
-        <v>1716.640978007438</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P6" t="n">
-        <v>1716.640978007438</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="Q6" t="n">
         <v>1716.640978007438</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>762.8950539462408</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>590.3333424294657</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>424.4553496309884</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>254.6973458817257</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>77.99029184348186</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>53.40121652862857</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>53.40121652862857</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4747,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2510.819457729425</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T7" t="n">
-        <v>2264.94001130788</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U7" t="n">
-        <v>1986.507010560985</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V7" t="n">
-        <v>1699.551502431416</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W7" t="n">
-        <v>1427.525098017707</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X7" t="n">
-        <v>1182.13334335112</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y7" t="n">
-        <v>954.7136726652279</v>
+        <v>1132.45937714051</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>668.6030377373717</v>
+        <v>1263.378731228637</v>
       </c>
       <c r="C8" t="n">
-        <v>487.1759613703334</v>
+        <v>1263.378731228637</v>
       </c>
       <c r="D8" t="n">
-        <v>487.1759613703334</v>
+        <v>1263.378731228637</v>
       </c>
       <c r="E8" t="n">
-        <v>53.40121652862857</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40121652862857</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862857</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>714.241271070407</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>714.241271070407</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>714.241271070407</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N8" t="n">
-        <v>714.241271070407</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2586.408952615265</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>2327.186649932282</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V8" t="n">
-        <v>2327.186649932282</v>
+        <v>2087.376649238293</v>
       </c>
       <c r="W8" t="n">
-        <v>1922.331195343316</v>
+        <v>1682.521194649326</v>
       </c>
       <c r="X8" t="n">
-        <v>1503.188731922626</v>
+        <v>1263.378731228637</v>
       </c>
       <c r="Y8" t="n">
-        <v>1094.902608222279</v>
+        <v>1263.378731228637</v>
       </c>
     </row>
     <row r="9">
@@ -4875,34 +4877,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M9" t="n">
-        <v>394.9608689238807</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N9" t="n">
-        <v>1055.800923465659</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O9" t="n">
-        <v>1716.640978007438</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="P9" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>762.8950539462408</v>
+        <v>968.8969033375045</v>
       </c>
       <c r="C10" t="n">
-        <v>590.3333424294657</v>
+        <v>796.3351918207294</v>
       </c>
       <c r="D10" t="n">
-        <v>424.4553496309884</v>
+        <v>630.4571990222521</v>
       </c>
       <c r="E10" t="n">
-        <v>254.6973458817257</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>77.99029184348186</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>53.40121652862857</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862857</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4984,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2510.819457729425</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2264.94001130788</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1986.507010560985</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1699.551502431416</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1427.525098017707</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1182.13334335112</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>954.7136726652279</v>
+        <v>1160.715522056492</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1419.763337936864</v>
+        <v>945.2275800236997</v>
       </c>
       <c r="C11" t="n">
-        <v>1350.953175786681</v>
+        <v>507.085107207123</v>
       </c>
       <c r="D11" t="n">
-        <v>915.0433909611256</v>
+        <v>71.17532238156753</v>
       </c>
       <c r="E11" t="n">
-        <v>481.2686461194209</v>
+        <v>71.17532238156753</v>
       </c>
       <c r="F11" t="n">
-        <v>53.40121652862857</v>
+        <v>71.17532238156753</v>
       </c>
       <c r="G11" t="n">
-        <v>53.40121652862857</v>
+        <v>71.17532238156753</v>
       </c>
       <c r="H11" t="n">
-        <v>53.40121652862857</v>
+        <v>70.58739091821782</v>
       </c>
       <c r="I11" t="n">
-        <v>53.40121652862857</v>
+        <v>70.58739091821782</v>
       </c>
       <c r="J11" t="n">
-        <v>53.40121652862857</v>
+        <v>70.58739091821782</v>
       </c>
       <c r="K11" t="n">
-        <v>53.40121652862857</v>
+        <v>70.58739091821782</v>
       </c>
       <c r="L11" t="n">
-        <v>53.40121652862857</v>
+        <v>70.58739091821782</v>
       </c>
       <c r="M11" t="n">
-        <v>53.40121652862857</v>
+        <v>238.3688951399525</v>
       </c>
       <c r="N11" t="n">
-        <v>632.7278666362199</v>
+        <v>1111.887857752898</v>
       </c>
       <c r="O11" t="n">
-        <v>1293.567921177998</v>
+        <v>1985.406820365843</v>
       </c>
       <c r="P11" t="n">
-        <v>1954.407975719777</v>
+        <v>2813.71669519924</v>
       </c>
       <c r="Q11" t="n">
-        <v>2500.906761678372</v>
+        <v>3360.215481157834</v>
       </c>
       <c r="R11" t="n">
-        <v>2670.060826431428</v>
+        <v>3529.369545910891</v>
       </c>
       <c r="S11" t="n">
-        <v>2670.060826431428</v>
+        <v>3445.717672094728</v>
       </c>
       <c r="T11" t="n">
-        <v>2670.060826431428</v>
+        <v>3225.650444967767</v>
       </c>
       <c r="U11" t="n">
-        <v>2670.060826431428</v>
+        <v>2966.428142284783</v>
       </c>
       <c r="V11" t="n">
-        <v>2670.060826431428</v>
+        <v>2603.81119221861</v>
       </c>
       <c r="W11" t="n">
-        <v>2265.205371842461</v>
+        <v>2198.955737629643</v>
       </c>
       <c r="X11" t="n">
-        <v>1846.062908421772</v>
+        <v>1779.813274208954</v>
       </c>
       <c r="Y11" t="n">
-        <v>1846.062908421772</v>
+        <v>1371.527150508608</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>559.5729615199214</v>
+        <v>576.7591359095106</v>
       </c>
       <c r="C12" t="n">
-        <v>453.1165003565636</v>
+        <v>470.3026747461529</v>
       </c>
       <c r="D12" t="n">
-        <v>358.0262115031169</v>
+        <v>375.2123858927062</v>
       </c>
       <c r="E12" t="n">
-        <v>263.9057968300706</v>
+        <v>281.0919712196599</v>
       </c>
       <c r="F12" t="n">
-        <v>180.5219584462322</v>
+        <v>197.7081328358215</v>
       </c>
       <c r="G12" t="n">
-        <v>95.13686871241609</v>
+        <v>112.3230431020054</v>
       </c>
       <c r="H12" t="n">
-        <v>53.40121652862857</v>
+        <v>70.58739091821782</v>
       </c>
       <c r="I12" t="n">
-        <v>53.40121652862857</v>
+        <v>70.58739091821782</v>
       </c>
       <c r="J12" t="n">
-        <v>53.40121652862857</v>
+        <v>70.58739091821782</v>
       </c>
       <c r="K12" t="n">
-        <v>53.40121652862857</v>
+        <v>70.58739091821782</v>
       </c>
       <c r="L12" t="n">
-        <v>53.40121652862857</v>
+        <v>70.58739091821782</v>
       </c>
       <c r="M12" t="n">
-        <v>394.9608689238807</v>
+        <v>70.58739091821782</v>
       </c>
       <c r="N12" t="n">
-        <v>1055.800923465659</v>
+        <v>70.58739091821782</v>
       </c>
       <c r="O12" t="n">
-        <v>1716.640978007438</v>
+        <v>796.9312078234889</v>
       </c>
       <c r="P12" t="n">
-        <v>1716.640978007438</v>
+        <v>1616.654374302687</v>
       </c>
       <c r="Q12" t="n">
-        <v>1716.640978007438</v>
+        <v>1616.654374302687</v>
       </c>
       <c r="R12" t="n">
-        <v>1716.640978007438</v>
+        <v>1733.827152397027</v>
       </c>
       <c r="S12" t="n">
-        <v>1653.185540455821</v>
+        <v>1670.37171484541</v>
       </c>
       <c r="T12" t="n">
-        <v>1523.006896786422</v>
+        <v>1540.193071176011</v>
       </c>
       <c r="U12" t="n">
-        <v>1346.67034978639</v>
+        <v>1363.85652417598</v>
       </c>
       <c r="V12" t="n">
-        <v>1147.55283184839</v>
+        <v>1164.739006237979</v>
       </c>
       <c r="W12" t="n">
-        <v>962.2300775815838</v>
+        <v>979.4162519711731</v>
       </c>
       <c r="X12" t="n">
-        <v>807.3626418204638</v>
+        <v>824.548816210053</v>
       </c>
       <c r="Y12" t="n">
-        <v>680.8768625996845</v>
+        <v>698.0630369892738</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.8950539462408</v>
+        <v>758.6634070412019</v>
       </c>
       <c r="C13" t="n">
-        <v>590.3333424294657</v>
+        <v>586.1016955244269</v>
       </c>
       <c r="D13" t="n">
-        <v>424.4553496309884</v>
+        <v>420.2237027259496</v>
       </c>
       <c r="E13" t="n">
-        <v>424.4553496309884</v>
+        <v>420.2237027259496</v>
       </c>
       <c r="F13" t="n">
-        <v>247.7482955927446</v>
+        <v>324.8386151177148</v>
       </c>
       <c r="G13" t="n">
-        <v>82.15702061857226</v>
+        <v>159.2473401435425</v>
       </c>
       <c r="H13" t="n">
-        <v>53.40121652862857</v>
+        <v>159.2473401435425</v>
       </c>
       <c r="I13" t="n">
-        <v>53.40121652862857</v>
+        <v>70.58739091821782</v>
       </c>
       <c r="J13" t="n">
-        <v>139.9809016933184</v>
+        <v>157.1670760829077</v>
       </c>
       <c r="K13" t="n">
-        <v>414.739356264454</v>
+        <v>431.9255306540433</v>
       </c>
       <c r="L13" t="n">
-        <v>832.9492380324151</v>
+        <v>850.1354124220043</v>
       </c>
       <c r="M13" t="n">
-        <v>1292.433105213328</v>
+        <v>1309.619279602917</v>
       </c>
       <c r="N13" t="n">
-        <v>1734.691908370973</v>
+        <v>1751.878082760562</v>
       </c>
       <c r="O13" t="n">
-        <v>2154.361157596754</v>
+        <v>2171.547331986344</v>
       </c>
       <c r="P13" t="n">
-        <v>2501.868051567096</v>
+        <v>2519.054225956686</v>
       </c>
       <c r="Q13" t="n">
-        <v>2670.060826431428</v>
+        <v>2687.247000821018</v>
       </c>
       <c r="R13" t="n">
-        <v>2670.060826431428</v>
+        <v>2665.829179526389</v>
       </c>
       <c r="S13" t="n">
-        <v>2510.819457729425</v>
+        <v>2506.587810824386</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.94001130788</v>
+        <v>2260.708364402841</v>
       </c>
       <c r="U13" t="n">
-        <v>1986.507010560985</v>
+        <v>1982.275363655946</v>
       </c>
       <c r="V13" t="n">
-        <v>1699.551502431416</v>
+        <v>1695.319855526377</v>
       </c>
       <c r="W13" t="n">
-        <v>1427.525098017707</v>
+        <v>1423.293451112668</v>
       </c>
       <c r="X13" t="n">
-        <v>1182.13334335112</v>
+        <v>1177.901696446081</v>
       </c>
       <c r="Y13" t="n">
-        <v>954.7136726652279</v>
+        <v>950.4820257601891</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1650.358373569249</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>1212.215900752673</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>776.3061159271172</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>342.5313710854123</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>342.5313710854123</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>342.5313710854123</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>53.40121652862857</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>53.40121652862857</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>53.40121652862857</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>53.40121652862857</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L14" t="n">
-        <v>53.40121652862857</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M14" t="n">
-        <v>53.40121652862857</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N14" t="n">
-        <v>632.7278666362199</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>1293.567921177998</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>1954.407975719777</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>2500.906761678372</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>2670.060826431428</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>2586.408952615265</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>2366.341725488304</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>2107.119422805321</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>1744.502472739147</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>1650.358373569249</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>1650.358373569249</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>1650.358373569249</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>559.5729615199214</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>453.1165003565636</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>358.0262115031169</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>263.9057968300706</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>180.5219584462322</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>95.13686871241609</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>53.40121652862857</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>53.40121652862857</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J15" t="n">
-        <v>53.40121652862857</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K15" t="n">
-        <v>53.40121652862857</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L15" t="n">
-        <v>53.40121652862857</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M15" t="n">
-        <v>53.40121652862857</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N15" t="n">
-        <v>714.241271070407</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O15" t="n">
-        <v>714.241271070407</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P15" t="n">
-        <v>1375.081325612186</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1716.640978007438</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1716.640978007438</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1653.185540455821</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1523.006896786422</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1346.67034978639</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1147.55283184839</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>962.2300775815838</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>807.3626418204638</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>680.8768625996845</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>903.8972536055599</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C16" t="n">
-        <v>731.3355420887848</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D16" t="n">
-        <v>565.4575492903075</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E16" t="n">
-        <v>395.6995455410447</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F16" t="n">
-        <v>218.9924915028009</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G16" t="n">
-        <v>53.40121652862857</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H16" t="n">
-        <v>53.40121652862857</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>53.40121652862857</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>139.9809016933184</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>414.739356264454</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>832.9492380324151</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1292.433105213328</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1734.691908370973</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2154.361157596754</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2501.868051567096</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2670.060826431428</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2651.821657388744</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2405.942210967199</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2127.509210220304</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1840.553702090735</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W16" t="n">
-        <v>1568.527297677026</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X16" t="n">
-        <v>1323.135543010439</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y16" t="n">
-        <v>1095.715872324547</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1057.14638787069</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>619.0039150541138</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>183.0941302285583</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>53.40121652862856</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>53.40121652862856</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>53.40121652862856</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>53.40121652862856</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L17" t="n">
-        <v>53.40121652862856</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M17" t="n">
-        <v>53.40121652862856</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
-        <v>714.2412710704069</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>1375.081325612185</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>1954.407975719776</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>2500.906761678371</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>2670.060826431428</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>2670.060826431428</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>2670.060826431428</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>2670.060826431428</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>2307.443876365254</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>1902.588421776288</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>1483.445958355598</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>1483.445958355598</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>559.5729615199214</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>453.1165003565636</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>358.0262115031169</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>263.9057968300706</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>180.5219584462322</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>95.13686871241609</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M18" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N18" t="n">
-        <v>53.40121652862856</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O18" t="n">
-        <v>714.2412710704069</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P18" t="n">
-        <v>1175.902039375362</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q18" t="n">
-        <v>1716.640978007438</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
-        <v>1716.640978007438</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1653.185540455821</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1523.006896786422</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1346.67034978639</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1147.55283184839</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>962.2300775815838</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>807.3626418204638</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>680.8768625996845</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>903.8972536055599</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C19" t="n">
-        <v>731.3355420887848</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="D19" t="n">
-        <v>565.4575492903075</v>
+        <v>645.8766848899141</v>
       </c>
       <c r="E19" t="n">
-        <v>395.6995455410447</v>
+        <v>476.1186811406514</v>
       </c>
       <c r="F19" t="n">
-        <v>218.9924915028009</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G19" t="n">
-        <v>53.40121652862856</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>139.9809016933184</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>414.739356264454</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>832.9492380324151</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1292.433105213328</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1734.691908370973</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2154.361157596754</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2501.868051567096</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2651.821657388744</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2405.942210967199</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2127.509210220304</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1840.553702090735</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1568.527297677026</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1323.135543010439</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>1095.715872324547</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5740,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5753,34 +5755,34 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>306.120802776629</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>306.120802776629</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.16863798718</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
         <v>4550.100609912873</v>
@@ -5789,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5841,16 +5843,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="N21" t="n">
-        <v>1336.088111831086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="23">
@@ -6002,10 +6004,10 @@
         <v>3460.099625170637</v>
       </c>
       <c r="O23" t="n">
-        <v>4440.279291740943</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.042013538981</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q23" t="n">
         <v>5113.04201353898</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J24" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K24" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L24" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>3449.802252060173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N24" t="n">
-        <v>3449.802252060173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O24" t="n">
-        <v>4463.603861878475</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P24" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q24" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R24" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S24" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T24" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U24" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V24" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W24" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1092.659051657336</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C25" t="n">
-        <v>920.0973401405612</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D25" t="n">
-        <v>754.2193473420839</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E25" t="n">
-        <v>584.4613435928212</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T25" t="n">
-        <v>2594.704009018975</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U25" t="n">
-        <v>2316.271008272081</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V25" t="n">
-        <v>2029.315500142511</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W25" t="n">
-        <v>1757.289095728803</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X25" t="n">
-        <v>1511.897341062215</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y25" t="n">
-        <v>1284.477670376323</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="26">
@@ -6230,22 +6232,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
-        <v>475.2748675296854</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M26" t="n">
-        <v>1632.322702740236</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E27" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F27" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M27" t="n">
-        <v>4648.527086152673</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N27" t="n">
-        <v>5113.042013538981</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="O27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S27" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T27" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U27" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V27" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W27" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X27" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y27" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H28" t="n">
         <v>190.9207894961043</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U28" t="n">
-        <v>2117.975449367836</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V28" t="n">
-        <v>2117.975449367836</v>
+        <v>1972.872751300483</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954127</v>
+        <v>1700.846346886775</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1455.454592220187</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1228.034921534295</v>
       </c>
     </row>
     <row r="29">
@@ -6467,22 +6469,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>1177.320806523639</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M29" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N29" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6549,10 +6551,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N30" t="n">
-        <v>751.6989919312866</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O30" t="n">
         <v>1765.500601749588</v>
@@ -6598,22 +6600,22 @@
         <v>790.3368563937634</v>
       </c>
       <c r="C31" t="n">
-        <v>617.7751448769883</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="D31" t="n">
-        <v>451.897152078511</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="E31" t="n">
-        <v>407.7542895545774</v>
+        <v>620.5788526445006</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>443.8717986062568</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>278.2805236320845</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>138.378349322459</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6701,7 +6703,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L32" t="n">
         <v>306.120802776629</v>
@@ -6792,10 +6794,10 @@
         <v>426.819165236992</v>
       </c>
       <c r="O33" t="n">
-        <v>426.819165236992</v>
+        <v>1440.620775055294</v>
       </c>
       <c r="P33" t="n">
-        <v>1246.54233171619</v>
+        <v>1440.620775055294</v>
       </c>
       <c r="Q33" t="n">
         <v>1765.500601749588</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>970.9960463903949</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="C34" t="n">
-        <v>798.4343348736198</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D34" t="n">
-        <v>632.5563420751425</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>462.7983383258798</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>286.091284287636</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>120.5000093134636</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1635.626090461861</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>1390.234335795274</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y34" t="n">
-        <v>1162.814665109382</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6941,46 +6943,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>475.2748675296863</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M35" t="n">
-        <v>1632.322702740237</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N35" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7029,13 +7031,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="O36" t="n">
-        <v>1116.062450089081</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7178,46 +7180,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>306.1208027766299</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7266,13 +7268,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="O39" t="n">
-        <v>287.8657185439749</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.588885023173</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.327823655249</v>
+        <v>1656.801388721157</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>926.781058858859</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2674.705462642043</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2428.826016220498</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2150.393015473603</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1863.437507344034</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1591.411102930325</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1346.019348263738</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1118.599677577846</v>
       </c>
     </row>
     <row r="41">
@@ -7400,10 +7402,10 @@
         <v>793.2056155771606</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
@@ -7500,7 +7502,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="N42" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O42" t="n">
         <v>287.8657185439749</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.7568773477108</v>
+        <v>834.8539430951545</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309357</v>
+        <v>662.2922315783794</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324584</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831957</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F43" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7591,28 +7593,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.99516675259</v>
+        <v>1254.092232500033</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.575496066698</v>
+        <v>1026.672561814142</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1182.488464651585</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>744.3459918350084</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>744.3459918350084</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>744.3459918350084</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>744.3459918350084</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>342.9481604582723</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>53.81800590148855</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I44" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>53.40121652862856</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L44" t="n">
-        <v>53.40121652862856</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M44" t="n">
-        <v>53.40121652862856</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N44" t="n">
-        <v>714.2412710704069</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>1375.081325612185</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>1954.407975719776</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>2500.906761678371</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>2670.060826431428</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>2586.408952615265</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>2366.341725488303</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>2107.11942280532</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>1744.502472739146</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>1339.64701815018</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>1339.64701815018</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>1182.488464651585</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>559.5729615199214</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>453.1165003565636</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>358.0262115031169</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>263.9057968300706</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>180.5219584462322</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>95.13686871241609</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J45" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K45" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L45" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M45" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N45" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O45" t="n">
-        <v>714.2412710704069</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="P45" t="n">
-        <v>1375.081325612185</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="Q45" t="n">
-        <v>1716.640978007438</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1716.640978007438</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1653.185540455821</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1523.006896786422</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1346.67034978639</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1147.55283184839</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>962.2300775815838</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>807.3626418204638</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>680.8768625996845</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>903.8972536055599</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C46" t="n">
-        <v>731.3355420887848</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D46" t="n">
-        <v>565.4575492903075</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E46" t="n">
-        <v>395.6995455410447</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F46" t="n">
-        <v>218.9924915028009</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>53.40121652862856</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H46" t="n">
-        <v>53.40121652862856</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>139.9809016933184</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>414.739356264454</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>832.9492380324151</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1292.433105213328</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1734.691908370973</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2154.361157596754</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2501.868051567096</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2670.060826431428</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2651.821657388744</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2405.942210967199</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>2127.509210220304</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V46" t="n">
-        <v>1840.553702090735</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W46" t="n">
-        <v>1568.527297677026</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X46" t="n">
-        <v>1323.135543010439</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y46" t="n">
-        <v>1095.715872324547</v>
+        <v>1209.575145798642</v>
       </c>
     </row>
   </sheetData>
@@ -7988,13 +7990,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>585.1784344521125</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8064,19 +8066,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>226.6534083847599</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8222,16 +8224,16 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>585.1784344521125</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O5" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8298,22 +8300,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>345.0097498941941</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>345.0097498941943</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -8453,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,13 +8464,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>585.1784344521125</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8538,22 +8540,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>345.0097498941941</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8696,16 +8698,16 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>169.4762668906411</v>
       </c>
       <c r="N11" t="n">
-        <v>585.1784344521125</v>
+        <v>882.3423864777228</v>
       </c>
       <c r="O11" t="n">
-        <v>667.5152066078571</v>
+        <v>882.3423864777228</v>
       </c>
       <c r="P11" t="n">
-        <v>667.5152066078572</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8775,22 +8777,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>345.0097498941941</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>667.515206607857</v>
+        <v>733.6806231366375</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,19 +8932,19 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>585.1784344521125</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>667.5152066078571</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>667.5152066078572</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9015,19 +9017,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P15" t="n">
-        <v>667.5152066078572</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
-        <v>345.0097498941939</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,19 +9169,19 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>667.515206607857</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>667.5152066078568</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>585.1784344521125</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9252,16 +9254,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="O18" t="n">
-        <v>667.515206607857</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P18" t="n">
-        <v>466.3240083888435</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -9401,10 +9403,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9489,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>433.7499898166689</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9650,13 +9652,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>280.9431591680332</v>
       </c>
       <c r="P23" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9723,16 +9725,16 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O24" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>655.9981329904103</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9878,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>376.7818457160665</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9896,7 +9898,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9963,10 +9965,10 @@
         <v>1210.83316575</v>
       </c>
       <c r="N27" t="n">
-        <v>469.2069973599073</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10115,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -10127,13 +10129,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,13 +10199,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N30" t="n">
-        <v>655.9981329904112</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10349,10 +10351,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -10440,13 +10442,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>524.2002727610084</v>
+        <v>328.1614411053483</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10589,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>376.7818457160674</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10607,7 +10609,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10677,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P36" t="n">
-        <v>655.9981329904112</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,10 +10828,10 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>288.735183296506</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -10914,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>109.7971848772036</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11148,10 +11150,10 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>828.0031984638366</v>
@@ -11297,22 +11299,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>667.515206607857</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>667.5152066078568</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>585.1784344521125</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11388,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>667.515206607857</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P45" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>345.0097498941943</v>
+        <v>537.6417914809772</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22547,22 +22549,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>323.0668912482369</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -22598,16 +22600,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>135.7101134626219</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
@@ -22708,7 +22710,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22717,13 +22719,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>139.5921776627258</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22771,7 +22773,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>58.91774794908545</v>
       </c>
     </row>
     <row r="5">
@@ -22784,16 +22786,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>377.9468654889417</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22802,7 +22804,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,10 +22834,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -22844,10 +22846,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>275.5510975345589</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -22939,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -22954,13 +22956,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23008,7 +23010,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>39.52293549722759</v>
       </c>
     </row>
     <row r="8">
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>254.1482424850431</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>339.1833406884799</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,16 +23071,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23087,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -23185,19 +23187,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>161.9268490649754</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -23245,7 +23247,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -23258,22 +23260,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.6389875597295</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>285.6568008624997</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23425,16 +23427,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>80.50874676570893</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>110.034906517485</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23555,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>307.604241864878</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23662,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.63380825304883</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23738,19 +23740,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>301.0410128303573</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23798,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,13 +23901,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>107.2592358276481</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.0953302292553</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24376,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>3.146865729424633</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>5.148518520149963</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>81.78272691405303</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>124.3589898130759</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>52.01701577190886</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>52.01701577190869</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25360,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>35.15749310933364</v>
       </c>
     </row>
     <row r="38">
@@ -25552,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627258</v>
+        <v>135.0797604404442</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25792,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>44.07191583437711</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25862,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25928,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>248.6162944997343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>161.9268490649757</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>456558.158418172</v>
+        <v>456558.1584181719</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>456558.158418172</v>
+        <v>456558.1584181719</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>456558.158418172</v>
+        <v>546147.7022265762</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>456558.158418172</v>
+        <v>711257.7385854257</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>456558.158418172</v>
+        <v>711257.7385854257</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>711257.7385854254</v>
+        <v>711257.7385854257</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>711257.7385854254</v>
+        <v>711257.7385854257</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>456558.158418172</v>
+        <v>711257.7385854257</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135276.4913831621</v>
+        <v>135276.491383162</v>
       </c>
       <c r="C2" t="n">
         <v>135276.4913831621</v>
@@ -26320,16 +26322,16 @@
         <v>135276.491383162</v>
       </c>
       <c r="E2" t="n">
-        <v>135276.4913831621</v>
+        <v>161821.541400467</v>
       </c>
       <c r="F2" t="n">
-        <v>135276.4913831621</v>
+        <v>210743.033654941</v>
       </c>
       <c r="G2" t="n">
-        <v>135276.4913831621</v>
+        <v>210743.033654941</v>
       </c>
       <c r="H2" t="n">
-        <v>210743.0336549409</v>
+        <v>210743.033654941</v>
       </c>
       <c r="I2" t="n">
         <v>210743.0336549409</v>
@@ -26344,16 +26346,16 @@
         <v>210743.0336549409</v>
       </c>
       <c r="M2" t="n">
-        <v>210743.033654941</v>
+        <v>210743.0336549409</v>
       </c>
       <c r="N2" t="n">
-        <v>210743.033654941</v>
+        <v>210743.0336549409</v>
       </c>
       <c r="O2" t="n">
         <v>210743.033654941</v>
       </c>
       <c r="P2" t="n">
-        <v>135276.491383162</v>
+        <v>210743.0336549409</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840449</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>64142.66971118481</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>113440.8343649015</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>164784.5777780755</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177062</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>53535.79253229006</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>96971.0366196863</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.5868204130782</v>
+        <v>517.586820413078</v>
       </c>
       <c r="C4" t="n">
-        <v>517.5868204130782</v>
+        <v>517.586820413078</v>
       </c>
       <c r="D4" t="n">
         <v>517.586820413078</v>
       </c>
       <c r="E4" t="n">
-        <v>517.5868204130782</v>
+        <v>619.1519031239175</v>
       </c>
       <c r="F4" t="n">
-        <v>517.5868204130782</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="G4" t="n">
-        <v>517.586820413078</v>
+        <v>806.3323907826024</v>
       </c>
       <c r="H4" t="n">
         <v>806.3323907826023</v>
@@ -26445,10 +26447,10 @@
         <v>806.3323907826023</v>
       </c>
       <c r="L4" t="n">
+        <v>806.3323907826021</v>
+      </c>
+      <c r="M4" t="n">
         <v>806.3323907826023</v>
-      </c>
-      <c r="M4" t="n">
-        <v>806.3323907826024</v>
       </c>
       <c r="N4" t="n">
         <v>806.3323907826023</v>
@@ -26457,7 +26459,7 @@
         <v>806.3323907826023</v>
       </c>
       <c r="P4" t="n">
-        <v>517.586820413078</v>
+        <v>806.3323907826021</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>40584.92456175771</v>
+        <v>53646.41709784554</v>
       </c>
       <c r="F5" t="n">
-        <v>40584.92456175771</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>40584.9245617577</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26509,7 +26511,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>40584.9245617577</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26522,28 +26524,28 @@
         <v>-163153.3185830536</v>
       </c>
       <c r="C6" t="n">
-        <v>60546.38000099128</v>
+        <v>60546.3800009913</v>
       </c>
       <c r="D6" t="n">
-        <v>60546.38000099125</v>
+        <v>60546.38000099127</v>
       </c>
       <c r="E6" t="n">
-        <v>94173.98000099132</v>
+        <v>43413.30268831278</v>
       </c>
       <c r="F6" t="n">
-        <v>94173.98000099132</v>
+        <v>18777.62829346431</v>
       </c>
       <c r="G6" t="n">
-        <v>94173.98000099129</v>
+        <v>132218.4626583658</v>
       </c>
       <c r="H6" t="n">
-        <v>-32566.1151197097</v>
+        <v>132218.4626583658</v>
       </c>
       <c r="I6" t="n">
         <v>132218.4626583658</v>
       </c>
       <c r="J6" t="n">
-        <v>-42432.88605934036</v>
+        <v>-42432.88605934035</v>
       </c>
       <c r="K6" t="n">
         <v>132218.4626583658</v>
@@ -26552,16 +26554,16 @@
         <v>132218.4626583658</v>
       </c>
       <c r="M6" t="n">
-        <v>132218.4626583659</v>
+        <v>78682.67012607577</v>
       </c>
       <c r="N6" t="n">
-        <v>132218.4626583658</v>
+        <v>35247.42603867949</v>
       </c>
       <c r="O6" t="n">
         <v>132218.4626583658</v>
       </c>
       <c r="P6" t="n">
-        <v>94173.98000099126</v>
+        <v>132218.4626583658</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>667.5152066078571</v>
+        <v>882.3423864777228</v>
       </c>
       <c r="F4" t="n">
-        <v>667.5152066078571</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>667.515206607857</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26829,7 +26831,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>667.515206607857</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>214.8271798698659</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>395.9181169070225</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>610.7452967768884</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>214.8271798698659</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>395.9181169070225</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,16 +27266,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>214.8271798698659</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>395.9181169070225</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>610.7452967768884</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34708,13 +34710,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>585.1784344521125</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34784,19 +34786,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>226.6534083847599</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,13 +34865,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
@@ -34942,16 +34944,16 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>585.1784344521125</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O5" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35018,22 +35020,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>345.0097498941941</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>345.0097498941943</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,13 +35184,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>585.1784344521125</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35258,22 +35260,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>345.0097498941941</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35416,16 +35418,16 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>169.4762668906411</v>
       </c>
       <c r="N11" t="n">
-        <v>585.1784344521125</v>
+        <v>882.3423864777228</v>
       </c>
       <c r="O11" t="n">
-        <v>667.5152066078571</v>
+        <v>882.3423864777228</v>
       </c>
       <c r="P11" t="n">
-        <v>667.5152066078572</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35495,22 +35497,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>345.0097498941941</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>667.515206607857</v>
+        <v>733.6806231366375</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35650,25 +35652,25 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>585.1784344521125</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>667.5152066078571</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>667.5152066078572</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35735,19 +35737,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P15" t="n">
-        <v>667.5152066078572</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
-        <v>345.0097498941939</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,13 +35813,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35887,25 +35889,25 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>667.515206607857</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>667.5152066078568</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>585.1784344521125</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35972,16 +35974,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="O18" t="n">
-        <v>667.515206607857</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P18" t="n">
-        <v>466.3240083888435</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36048,13 +36050,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36121,10 +36123,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -36209,19 +36211,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>433.7499898166689</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36370,13 +36372,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831377</v>
+        <v>280.9431591680332</v>
       </c>
       <c r="P23" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36443,16 +36445,16 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O24" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>655.9981329904103</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36598,7 +36600,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>376.7818457160665</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -36616,7 +36618,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36683,10 +36685,10 @@
         <v>1210.83316575</v>
       </c>
       <c r="N27" t="n">
-        <v>469.2069973599073</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36835,7 +36837,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -36847,13 +36849,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N30" t="n">
-        <v>655.9981329904112</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37069,10 +37071,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -37160,13 +37162,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>524.2002727610084</v>
+        <v>328.1614411053483</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37309,7 +37311,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>376.7818457160674</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37327,7 +37329,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37397,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P36" t="n">
-        <v>655.9981329904112</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37546,10 +37548,10 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>288.735183296506</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -37634,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>109.7971848772036</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37868,10 +37870,10 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>828.0031984638366</v>
@@ -38017,28 +38019,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>667.515206607857</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>667.5152066078568</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>585.1784344521125</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38108,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>667.515206607857</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P45" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>345.0097498941943</v>
+        <v>537.6417914809772</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38181,13 +38183,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>435930.6581591755</v>
+        <v>433808.5190381202</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,13 +670,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>100.5218640466475</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -721,13 +721,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>355.4083397417477</v>
       </c>
     </row>
     <row r="3">
@@ -822,7 +822,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -831,7 +831,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -873,10 +873,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -885,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>166.2277260299473</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>51.49013190434606</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>147.8903426642927</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -964,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1068,10 +1068,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361676</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>185.6225384818052</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>90.25365670480782</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>51.38653870063297</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1299,19 +1299,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>6.133574646794665</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -1359,7 +1359,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1378,16 +1378,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5820521487162075</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>67.28211659601081</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1536,10 +1536,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>94.4312367321524</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1609,7 +1609,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884122</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1627,7 +1627,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>90.30617524481251</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2013,13 +2013,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>67.68074767021322</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2256,7 +2256,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2298,7 +2298,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>5.990622819018522</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2490,7 +2490,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>160.788496495006</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>184.7519140116473</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2952,10 +2952,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2967,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>35.75633396116255</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>137.8834167598885</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3204,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3426,10 +3426,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>107.6897798763023</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3441,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>189.9879808696992</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3666,7 +3666,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3678,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>22.56919457453911</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3754,7 +3754,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
@@ -3906,19 +3906,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3963,7 +3963,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>198.8659212855445</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>27.97358346682158</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4146,13 +4146,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>111.5098183264943</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4203,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>588.7131977810884</v>
+        <v>1605.571376894645</v>
       </c>
       <c r="C2" t="n">
-        <v>588.7131977810884</v>
+        <v>1605.571376894645</v>
       </c>
       <c r="D2" t="n">
-        <v>588.7131977810884</v>
+        <v>1605.571376894645</v>
       </c>
       <c r="E2" t="n">
-        <v>154.9384529393836</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F2" t="n">
-        <v>53.40121652862856</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H2" t="n">
         <v>53.40121652862856</v>
@@ -4336,16 +4336,16 @@
         <v>53.40121652862856</v>
       </c>
       <c r="L2" t="n">
-        <v>53.40121652862856</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M2" t="n">
-        <v>53.40121652862856</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362198</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P2" t="n">
         <v>1954.407975719776</v>
@@ -4357,25 +4357,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2449.993599304466</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U2" t="n">
-        <v>2190.771296621483</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V2" t="n">
-        <v>1828.15434655531</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W2" t="n">
-        <v>1423.298891966343</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="X2" t="n">
-        <v>1423.298891966343</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="Y2" t="n">
-        <v>1015.012768265996</v>
+        <v>1605.571376894645</v>
       </c>
     </row>
     <row r="3">
@@ -4406,25 +4406,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="K3" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="L3" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="M3" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="N3" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O3" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
         <v>1058.729261281022</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>800.9901093678603</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>628.4283978510853</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>628.4283978510853</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>458.6703941018225</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>281.9633400635787</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
         <v>281.9633400635787</v>
@@ -4521,19 +4521,19 @@
         <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136787</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056491</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y4" t="n">
-        <v>992.8087280868474</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1224.223655672615</v>
+        <v>778.4411559109678</v>
       </c>
       <c r="C5" t="n">
-        <v>1224.223655672615</v>
+        <v>778.4411559109678</v>
       </c>
       <c r="D5" t="n">
-        <v>1224.223655672615</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="E5" t="n">
-        <v>1172.213421425801</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="F5" t="n">
-        <v>744.3459918350084</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G5" t="n">
-        <v>342.9481604582723</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862856</v>
@@ -4594,25 +4594,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2437.024768105878</v>
       </c>
       <c r="U5" t="n">
-        <v>2410.838523748444</v>
+        <v>2437.024768105878</v>
       </c>
       <c r="V5" t="n">
-        <v>2048.221573682271</v>
+        <v>2437.024768105878</v>
       </c>
       <c r="W5" t="n">
-        <v>1643.366119093304</v>
+        <v>2032.169313516912</v>
       </c>
       <c r="X5" t="n">
-        <v>1224.223655672615</v>
+        <v>1613.026850096222</v>
       </c>
       <c r="Y5" t="n">
-        <v>1224.223655672615</v>
+        <v>1204.740726395876</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="K6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="L6" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="M6" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="N6" t="n">
-        <v>714.2412710704069</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O6" t="n">
-        <v>1375.081325612185</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P6" t="n">
-        <v>1375.081325612185</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
         <v>1716.640978007438</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1132.45937714051</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C7" t="n">
-        <v>959.897665623735</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D7" t="n">
-        <v>794.0196728252577</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H7" t="n">
         <v>142.0611657539532</v>
@@ -4749,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>2402.763558715255</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U7" t="n">
-        <v>2124.330557968361</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V7" t="n">
-        <v>1837.375049838791</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W7" t="n">
-        <v>1565.348645425083</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X7" t="n">
-        <v>1319.956890758495</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y7" t="n">
-        <v>1132.45937714051</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1263.378731228637</v>
+        <v>1702.263968216353</v>
       </c>
       <c r="C8" t="n">
-        <v>1263.378731228637</v>
+        <v>1264.121495399777</v>
       </c>
       <c r="D8" t="n">
-        <v>1263.378731228637</v>
+        <v>828.2117105742211</v>
       </c>
       <c r="E8" t="n">
-        <v>1172.213421425801</v>
+        <v>394.4369657325163</v>
       </c>
       <c r="F8" t="n">
-        <v>744.3459918350084</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4813,13 +4813,13 @@
         <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>53.40121652862856</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P8" t="n">
         <v>1954.407975719776</v>
@@ -4831,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2449.993599304466</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2449.993599304466</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>2087.376649238293</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W8" t="n">
-        <v>1682.521194649326</v>
+        <v>1702.263968216353</v>
       </c>
       <c r="X8" t="n">
-        <v>1263.378731228637</v>
+        <v>1702.263968216353</v>
       </c>
       <c r="Y8" t="n">
-        <v>1263.378731228637</v>
+        <v>1702.263968216353</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="M9" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="N9" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O9" t="n">
-        <v>714.2412710704069</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>968.8969033375045</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C10" t="n">
-        <v>796.3351918207294</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D10" t="n">
-        <v>630.4571990222521</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y10" t="n">
-        <v>1160.715522056492</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>945.2275800236997</v>
+        <v>2207.679654369583</v>
       </c>
       <c r="C11" t="n">
-        <v>507.085107207123</v>
+        <v>1769.537181553007</v>
       </c>
       <c r="D11" t="n">
-        <v>71.17532238156753</v>
+        <v>1333.627396727451</v>
       </c>
       <c r="E11" t="n">
-        <v>71.17532238156753</v>
+        <v>899.8526518857461</v>
       </c>
       <c r="F11" t="n">
-        <v>71.17532238156753</v>
+        <v>471.9852222949539</v>
       </c>
       <c r="G11" t="n">
-        <v>71.17532238156753</v>
+        <v>70.58739091821782</v>
       </c>
       <c r="H11" t="n">
         <v>70.58739091821782</v>
@@ -5068,25 +5068,25 @@
         <v>3529.369545910891</v>
       </c>
       <c r="S11" t="n">
-        <v>3445.717672094728</v>
+        <v>3529.369545910891</v>
       </c>
       <c r="T11" t="n">
-        <v>3225.650444967767</v>
+        <v>3529.369545910891</v>
       </c>
       <c r="U11" t="n">
-        <v>2966.428142284783</v>
+        <v>3529.369545910891</v>
       </c>
       <c r="V11" t="n">
-        <v>2603.81119221861</v>
+        <v>3529.369545910891</v>
       </c>
       <c r="W11" t="n">
-        <v>2198.955737629643</v>
+        <v>3461.407811975527</v>
       </c>
       <c r="X11" t="n">
-        <v>1779.813274208954</v>
+        <v>3042.265348554838</v>
       </c>
       <c r="Y11" t="n">
-        <v>1371.527150508608</v>
+        <v>2633.979224854491</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>70.58739091821782</v>
       </c>
       <c r="I12" t="n">
-        <v>70.58739091821782</v>
+        <v>96.65106407867542</v>
       </c>
       <c r="J12" t="n">
-        <v>70.58739091821782</v>
+        <v>256.1922691914132</v>
       </c>
       <c r="K12" t="n">
-        <v>70.58739091821782</v>
+        <v>256.1922691914132</v>
       </c>
       <c r="L12" t="n">
-        <v>70.58739091821782</v>
+        <v>256.1922691914132</v>
       </c>
       <c r="M12" t="n">
-        <v>70.58739091821782</v>
+        <v>256.1922691914132</v>
       </c>
       <c r="N12" t="n">
-        <v>70.58739091821782</v>
+        <v>256.1922691914132</v>
       </c>
       <c r="O12" t="n">
-        <v>796.9312078234889</v>
+        <v>256.1922691914132</v>
       </c>
       <c r="P12" t="n">
-        <v>1616.654374302687</v>
+        <v>1075.915435670611</v>
       </c>
       <c r="Q12" t="n">
         <v>1616.654374302687</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>758.6634070412019</v>
+        <v>921.0834279951491</v>
       </c>
       <c r="C13" t="n">
-        <v>586.1016955244269</v>
+        <v>748.5217164783741</v>
       </c>
       <c r="D13" t="n">
-        <v>420.2237027259496</v>
+        <v>582.6437236798968</v>
       </c>
       <c r="E13" t="n">
-        <v>420.2237027259496</v>
+        <v>412.885719930634</v>
       </c>
       <c r="F13" t="n">
-        <v>324.8386151177148</v>
+        <v>236.1786658923901</v>
       </c>
       <c r="G13" t="n">
-        <v>159.2473401435425</v>
+        <v>70.58739091821782</v>
       </c>
       <c r="H13" t="n">
-        <v>159.2473401435425</v>
+        <v>70.58739091821782</v>
       </c>
       <c r="I13" t="n">
         <v>70.58739091821782</v>
@@ -5223,28 +5223,28 @@
         <v>2687.247000821018</v>
       </c>
       <c r="R13" t="n">
-        <v>2665.829179526389</v>
+        <v>2687.247000821018</v>
       </c>
       <c r="S13" t="n">
-        <v>2506.587810824386</v>
+        <v>2669.007831778333</v>
       </c>
       <c r="T13" t="n">
-        <v>2260.708364402841</v>
+        <v>2423.128385356788</v>
       </c>
       <c r="U13" t="n">
-        <v>1982.275363655946</v>
+        <v>2144.695384609894</v>
       </c>
       <c r="V13" t="n">
-        <v>1695.319855526377</v>
+        <v>1857.739876480324</v>
       </c>
       <c r="W13" t="n">
-        <v>1423.293451112668</v>
+        <v>1585.713472066616</v>
       </c>
       <c r="X13" t="n">
-        <v>1177.901696446081</v>
+        <v>1340.321717400028</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.4820257601891</v>
+        <v>1112.902046714136</v>
       </c>
     </row>
     <row r="14">
@@ -5257,22 +5257,22 @@
         <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5354,25 +5354,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5424,13 +5424,13 @@
         <v>282.1391483292483</v>
       </c>
       <c r="F16" t="n">
-        <v>190.9207894961043</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G16" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5506,10 +5506,10 @@
         <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N18" t="n">
-        <v>751.6989919312866</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5652,19 +5652,19 @@
         <v>811.7546776883914</v>
       </c>
       <c r="C19" t="n">
-        <v>811.7546776883914</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D19" t="n">
-        <v>645.8766848899141</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E19" t="n">
-        <v>476.1186811406514</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5785,19 +5785,19 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5937,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5995,22 +5995,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>1177.320806523639</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M23" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M24" t="n">
-        <v>1300.985674363279</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>949.5782250957668</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C25" t="n">
-        <v>777.0165135789917</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D25" t="n">
-        <v>611.1385207805145</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E25" t="n">
-        <v>441.3805170312517</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F25" t="n">
-        <v>264.6734629930079</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2451.623182457406</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2173.190181710511</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1886.234673580942</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1614.208269167233</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1368.816514500646</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1141.396843814754</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1041.416826573035</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>868.8551150562604</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2538.261260176947</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2259.828259430053</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1972.872751300483</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1700.846346886775</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1455.454592220187</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1228.034921534295</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>790.3368563937634</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>790.3368563937634</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>620.5788526445006</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>443.8717986062568</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>278.2805236320845</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>138.378349322459</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6703,7 +6703,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>306.120802776629</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
         <v>306.120802776629</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1440.620775055294</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1440.620775055294</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>842.8792965674086</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>842.8792965674086</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -7013,25 +7013,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.659051657336</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C37" t="n">
-        <v>920.0973401405612</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="D37" t="n">
-        <v>754.2193473420839</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E37" t="n">
-        <v>584.4613435928212</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F37" t="n">
-        <v>407.7542895545774</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7137,10 +7137,10 @@
         <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1476.384721759858</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.477670376323</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="38">
@@ -7180,7 +7180,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>1177.320806523639</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M38" t="n">
         <v>1463.16863798718</v>
@@ -7250,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1656.801388721157</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.781058858859</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>754.2193473420839</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2674.705462642043</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2428.826016220498</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2150.393015473603</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1863.437507344034</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1591.411102930325</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1346.019348263738</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1118.599677577846</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
@@ -7417,46 +7417,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L41" t="n">
-        <v>306.1208027766299</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M41" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
         <v>1107.588885023173</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>834.8539430951545</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>662.2922315783794</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>496.4142387799021</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>496.4142387799021</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7593,28 +7593,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1254.092232500033</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1026.672561814142</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7636,13 +7636,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
@@ -7651,28 +7651,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>306.120802776629</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L44" t="n">
-        <v>306.120802776629</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M44" t="n">
-        <v>1463.16863798718</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
         <v>5029.390139722817</v>
@@ -7687,13 +7687,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K45" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L45" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M45" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N45" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O45" t="n">
-        <v>1116.062450089081</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P45" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
         <v>1648.327823655249</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C46" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D46" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E46" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F46" t="n">
-        <v>496.4142387799021</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H46" t="n">
         <v>190.9207894961043</v>
@@ -7830,28 +7830,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y46" t="n">
-        <v>1209.575145798642</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
   </sheetData>
@@ -7984,19 +7984,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N2" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8054,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8072,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>347.9676668794094</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8300,25 +8300,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="O6" t="n">
-        <v>667.5152066078568</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
-        <v>345.0097498941943</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8461,16 +8461,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8546,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="P9" t="n">
-        <v>347.9676668794094</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>161.1527324371089</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8783,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>733.6806231366375</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9254,19 +9254,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,10 +9494,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -9652,7 +9652,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>280.9431591680332</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
         <v>836.6766412458549</v>
@@ -9661,7 +9661,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9725,22 +9725,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9950,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,10 +10351,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
         <v>205.9191540463125</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>328.1614411053483</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10679,10 +10679,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10828,10 +10828,10 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M38" t="n">
-        <v>288.735183296506</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>109.7971848772036</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,13 +11150,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11299,10 +11299,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11390,13 +11390,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>1024.042030119497</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
-        <v>537.6417914809772</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
@@ -22558,13 +22558,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>323.0668912482369</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -22597,10 +22597,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22609,13 +22609,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>48.79492272159536</v>
       </c>
     </row>
     <row r="3">
@@ -22710,7 +22710,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22719,7 +22719,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22761,10 +22761,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22773,7 +22773,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>58.91774794908545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>377.9468654889417</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,16 +22834,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>69.97621219139901</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22852,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -22956,10 +22956,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>69.71657238081384</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -22989,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -23010,7 +23010,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>39.52293549722759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23023,25 +23023,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>339.1833406884799</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>372.2022165942514</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,22 +23071,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -23187,19 +23187,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>161.9268490649754</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -23247,7 +23247,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23266,16 +23266,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>285.6568008624997</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>333.5247834470662</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23424,10 +23424,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>80.50874676570893</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.63380825304883</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,13 +23901,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>107.2592358276481</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24177,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.0953302292553</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>3.146865729424633</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5.148518520149963</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>52.01701577190886</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>52.01701577190869</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>63.14631452530506</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.15749310933364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>135.0797604404442</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>44.07191583437711</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>161.9268490649757</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26034,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>63.43016517136702</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>546147.7022265762</v>
+        <v>546147.7022265763</v>
       </c>
     </row>
     <row r="6">
@@ -26325,10 +26325,10 @@
         <v>161821.541400467</v>
       </c>
       <c r="F2" t="n">
-        <v>210743.033654941</v>
+        <v>210743.0336549409</v>
       </c>
       <c r="G2" t="n">
-        <v>210743.033654941</v>
+        <v>210743.0336549409</v>
       </c>
       <c r="H2" t="n">
         <v>210743.033654941</v>
@@ -26352,7 +26352,7 @@
         <v>210743.0336549409</v>
       </c>
       <c r="O2" t="n">
-        <v>210743.033654941</v>
+        <v>210743.0336549409</v>
       </c>
       <c r="P2" t="n">
         <v>210743.0336549409</v>
@@ -26432,7 +26432,7 @@
         <v>806.3323907826023</v>
       </c>
       <c r="G4" t="n">
-        <v>806.3323907826024</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="H4" t="n">
         <v>806.3323907826023</v>
@@ -26447,7 +26447,7 @@
         <v>806.3323907826023</v>
       </c>
       <c r="L4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="M4" t="n">
         <v>806.3323907826023</v>
@@ -26459,7 +26459,7 @@
         <v>806.3323907826023</v>
       </c>
       <c r="P4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-163153.3185830536</v>
+        <v>-163648.2088116349</v>
       </c>
       <c r="C6" t="n">
-        <v>60546.3800009913</v>
+        <v>60051.48977241004</v>
       </c>
       <c r="D6" t="n">
-        <v>60546.38000099127</v>
+        <v>60051.48977241001</v>
       </c>
       <c r="E6" t="n">
-        <v>43413.30268831278</v>
+        <v>43084.31902233968</v>
       </c>
       <c r="F6" t="n">
-        <v>18777.62829346431</v>
+        <v>18754.40395408163</v>
       </c>
       <c r="G6" t="n">
-        <v>132218.4626583658</v>
+        <v>132195.2383189832</v>
       </c>
       <c r="H6" t="n">
-        <v>132218.4626583658</v>
+        <v>132195.2383189832</v>
       </c>
       <c r="I6" t="n">
-        <v>132218.4626583658</v>
+        <v>132195.2383189831</v>
       </c>
       <c r="J6" t="n">
-        <v>-42432.88605934035</v>
+        <v>-42456.11039872297</v>
       </c>
       <c r="K6" t="n">
-        <v>132218.4626583658</v>
+        <v>132195.2383189832</v>
       </c>
       <c r="L6" t="n">
-        <v>132218.4626583658</v>
+        <v>132195.2383189832</v>
       </c>
       <c r="M6" t="n">
-        <v>78682.67012607577</v>
+        <v>78659.4457866931</v>
       </c>
       <c r="N6" t="n">
-        <v>35247.42603867949</v>
+        <v>35224.20169929686</v>
       </c>
       <c r="O6" t="n">
-        <v>132218.4626583658</v>
+        <v>132195.2383189832</v>
       </c>
       <c r="P6" t="n">
-        <v>132218.4626583658</v>
+        <v>132195.2383189832</v>
       </c>
     </row>
   </sheetData>
@@ -34704,19 +34704,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N2" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34774,10 +34774,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34792,10 +34792,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>347.9676668794094</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -35011,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -35020,25 +35020,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="O6" t="n">
-        <v>667.5152066078568</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
-        <v>345.0097498941943</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35181,16 +35181,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35266,10 +35266,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="P9" t="n">
-        <v>347.9676668794094</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>161.1527324371089</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35503,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>733.6806231366375</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35740,10 +35740,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35974,19 +35974,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36214,10 +36214,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36363,7 +36363,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -36372,7 +36372,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>280.9431591680332</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
         <v>836.6766412458546</v>
@@ -36381,7 +36381,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,10 +37071,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
         <v>205.9191540463125</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37162,16 +37162,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>328.1614411053483</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37399,10 +37399,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37548,10 +37548,10 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M38" t="n">
-        <v>288.735183296506</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37636,7 +37636,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>109.7971848772036</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37870,13 +37870,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -38019,10 +38019,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38110,13 +38110,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>1024.042030119497</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
-        <v>537.6417914809772</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
